--- a/analysis_specifications/analysis2_joel_1.xlsx
+++ b/analysis_specifications/analysis2_joel_1.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
